--- a/数据整理/stocks/A股/创业板/300747-锐科激光.xlsx
+++ b/数据整理/stocks/A股/创业板/300747-锐科激光.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2531,4 +2532,1572 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001714</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信文体产业股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>183.35</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.94</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.4723</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009076</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银瑞信圆兴混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>135.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.5765</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>169104</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方红睿满沪港深灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>83.29</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.1229</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011006</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信圆丰三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>109.83</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.20</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.6903</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>166027</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧创业板两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>26.62</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.94</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.5067</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>166009</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧新动力混合(LOF) -A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>25.70</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>82.30</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.1102</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010947</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧嘉选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>32.36</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>43.38</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9676</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>515880</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰中证全指通信设备ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>26.88</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.56</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8763</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>750001</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>安信灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>23.76</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>74.10</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8577</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>501081</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中欧科创主题3年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>20.42</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>79.06</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7678</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009210</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中欧嘉和三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>21.43</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.61</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.7629</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005421</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中欧嘉泽灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>10.49</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5623</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>910006</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>东方红启盛三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>9.87</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.5586</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>163804</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中银收益混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>17.76</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4813</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>960012</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中银收益混合H</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>17.76</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4813</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>910024</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>东方红启阳三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.07</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4381</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009791</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中欧创业板两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>98.94</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3730</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004236</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中欧新动力混合(LOF) -C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>82.30</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2272</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010687</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>工银瑞信文体产业股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>88.94</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1694</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001718</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>工银瑞信物流产业股票</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.79</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1359</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005587</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>安信比较优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>77.36</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1314</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>163822</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中银主题策略混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1276</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009211</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中欧嘉和三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>86.61</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0993</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010948</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中欧嘉选混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>43.38</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0682</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>007243</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>安信核心竞争力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>50.16</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0657</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>000935</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>浙商汇金转型成长混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>83.93</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0450</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>169201</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>浙商汇金鼎盈事件驱动灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>89.18</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>310368</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>申万菱信竞争优势混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>002210</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>创金合信量化多因子股票A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>89.47</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009128</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>明亚价值长青混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>71.40</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>004194</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>招商中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001883</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中欧新动力混合(LOF) -E</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>82.30</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>003646</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>创金合信中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>004195</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>招商中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>003647</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>创金合信中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>007244</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>安信核心竞争力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>50.16</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>009129</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>明亚价值长青混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>71.40</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>003865</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>创金合信量化多因子股票C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>89.47</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010442</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>东方红启盛三年持有期混合型证券投资基金B</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010862</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>东方红启阳三年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>90.07</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300747-锐科激光.xlsx
+++ b/数据整理/stocks/A股/创业板/300747-锐科激光.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4079,7 +4080,6 @@
           <t>东方红启阳三年持有期混合B</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
           <t>90.07</t>
@@ -4095,6 +4095,1354 @@
       </c>
       <c r="H41" t="n">
         <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001714</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信文体产业股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>142.55</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.2173</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009076</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银瑞信圆兴混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>100.93</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.81</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.6436</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011006</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银瑞信圆丰三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>97.38</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.2720</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009576</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东方红智远三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>82.72</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.8373</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>169104</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东方红睿满沪港深灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>70.30</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.7698</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>166027</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧创业板两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>25.34</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>97.78</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.1615</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010429</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧睿见混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>28.24</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.11</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.5588</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>169103</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东方红睿轩三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>45.42</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>83.29</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.4262</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010723</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>37.68</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.2171</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>166009</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中欧新动力混合(LOF) -A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>22.11</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.80</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.9131</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010947</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中欧嘉选混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>26.23</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>76.81</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.8944</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010678</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中欧均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>25.37</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.8829</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009210</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中欧嘉和三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>20.55</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.8343</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001955</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中欧养老产业混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>11.34</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>84.82</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.7847</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>003396</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>东方红优享红利沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>19.75</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>83.35</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.7130</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009791</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中欧创业板两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>97.78</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5340</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>470028</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇添富社会责任混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>14.06</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>84.37</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4345</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005421</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中欧嘉泽灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3858</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001712</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>东方红优势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>75.00</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2672</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004236</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中欧新动力混合(LOF) -C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>86.80</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2011</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010687</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>工银瑞信文体产业股票C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>84.65</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1252</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009211</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中欧嘉和三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1092</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>004734</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中欧瑾灵灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>9.30</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>27.62</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1070</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010724</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中欧价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0837</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010948</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中欧嘉选混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>76.81</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0501</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010679</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中欧均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0456</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>000935</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>浙商汇金转型成长混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>79.49</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0373</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>004735</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中欧瑾灵灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>27.62</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0305</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>006803</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>嘉实互通精选股票</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>169201</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>浙商汇金鼎盈事件驱动灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>79.66</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>004194</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>招商中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>080015</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>长盛中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>79.40</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001883</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中欧新动力混合(LOF) -E</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>86.80</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>004195</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>招商中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/创业板/300747-锐科激光.xlsx
+++ b/数据整理/stocks/A股/创业板/300747-锐科激光.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5448,4 +5449,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>34</v>
+      </c>
+      <c r="D2" t="n">
+        <v>31.62</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>40</v>
+      </c>
+      <c r="D3" t="n">
+        <v>29.8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>23</v>
+      </c>
+      <c r="D4" t="n">
+        <v>8.77</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>29</v>
+      </c>
+      <c r="D5" t="n">
+        <v>11.74</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300747-锐科激光.xlsx
+++ b/数据整理/stocks/A股/创业板/300747-锐科激光.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5457,7 +5458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5468,17 +5469,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5488,14 +5509,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>34</v>
-      </c>
-      <c r="D2" t="n">
-        <v>31.62</v>
+          <t>009076</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信圆兴混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>83.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.7278</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -5504,14 +5547,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>40</v>
-      </c>
-      <c r="D3" t="n">
-        <v>29.8</v>
+          <t>011006</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银瑞信圆丰三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>95.68</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.3392</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -5520,14 +5585,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>23</v>
-      </c>
-      <c r="D4" t="n">
-        <v>8.77</v>
+          <t>009576</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方红智远三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>82.72</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.7132</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -5536,13 +5623,1253 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>166027</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧创业板两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>27.58</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.13</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.5181</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>169103</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东方红睿轩三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>47.72</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>82.23</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.4936</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010723</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>37.31</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>83.84</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.4663</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010947</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧嘉选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>22.72</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.82</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.0701</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>166009</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧新动力混合(LOF) -A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>27.55</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>71.14</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.0689</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010678</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>23.83</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.0533</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003396</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>东方红优享红利沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>19.96</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.03</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7465</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009791</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中欧创业板两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9.13</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6218</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009210</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中欧嘉和三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>13.58</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>86.74</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5989</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000594</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>大摩进取优选股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8.32</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4767</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005421</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中欧嘉泽灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.30</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3944</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001712</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>东方红优势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>9.10</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>80.38</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2794</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004236</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中欧新动力混合(LOF) -C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>71.14</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2487</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001714</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>工银瑞信文体产业股票A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.58</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1763</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010687</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>工银瑞信文体产业股票C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.58</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1505</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009211</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中欧嘉和三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>86.74</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1283</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004734</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中欧瑾灵灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>29.99</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1092</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>233011</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>大摩主题优选混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89.49</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1065</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010724</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中欧价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>83.84</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0955</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010948</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中欧嘉选混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>88.82</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0589</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010679</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中欧均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0522</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>012661</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>广发恒益一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>24.78</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0452</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>000935</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>浙商汇金转型成长混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>80.16</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0413</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006803</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>嘉实互通精选股票</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0309</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>004194</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>招商中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>169201</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>浙商汇金鼎盈事件驱动灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>81.77</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>004195</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>招商中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>004735</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中欧瑾灵灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>29.99</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001883</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中欧新动力混合(LOF) -E</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>71.14</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>012662</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>广发恒益一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>24.78</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>33</v>
+      </c>
+      <c r="D2" t="n">
+        <v>22.87</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>34</v>
+      </c>
+      <c r="D3" t="n">
+        <v>31.62</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>40</v>
+      </c>
+      <c r="D4" t="n">
+        <v>29.8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>23</v>
+      </c>
+      <c r="D5" t="n">
+        <v>8.77</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>29</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>11.74</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300747-锐科激光.xlsx
+++ b/数据整理/stocks/A股/创业板/300747-锐科激光.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6768,7 +6769,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6779,17 +6780,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -6799,14 +6820,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>33</v>
-      </c>
-      <c r="D2" t="n">
-        <v>22.87</v>
+          <t>001714</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信文体产业股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>95.78</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.85</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.5151</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -6815,14 +6858,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>34</v>
-      </c>
-      <c r="D3" t="n">
-        <v>31.62</v>
+          <t>009076</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银瑞信圆兴混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>59.11</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.4590</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -6831,14 +6896,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>40</v>
-      </c>
-      <c r="D4" t="n">
-        <v>29.8</v>
+          <t>011006</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银瑞信圆丰三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>74.61</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.1488</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -6847,14 +6934,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>23</v>
-      </c>
-      <c r="D5" t="n">
-        <v>8.77</v>
+          <t>010723</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>28.80</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9677</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -6863,13 +6972,623 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>166027</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧创业板两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>21.11</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.64</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9162</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010947</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧嘉选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>17.36</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.64</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7066</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010678</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>18.02</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6956</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009210</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧嘉和三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>18.38</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.26</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6451</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003396</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>东方红优享红利沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>15.87</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.27</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4936</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000594</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>大摩进取优选股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2585</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009791</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中欧创业板两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>99.64</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2261</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010687</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>工银瑞信文体产业股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.85</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0995</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009211</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中欧嘉和三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>85.26</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0849</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>233011</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>大摩主题优选混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.75</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0726</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010724</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中欧价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0632</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010948</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中欧嘉选混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>87.64</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0383</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010679</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中欧均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0347</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>17</v>
+      </c>
+      <c r="D2" t="n">
+        <v>13.43</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>33</v>
+      </c>
+      <c r="D3" t="n">
+        <v>22.87</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>34</v>
+      </c>
+      <c r="D4" t="n">
+        <v>31.62</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>40</v>
+      </c>
+      <c r="D5" t="n">
+        <v>29.8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>23</v>
+      </c>
+      <c r="D6" t="n">
+        <v>8.77</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>29</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>11.74</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300747-锐科激光.xlsx
+++ b/数据整理/stocks/A股/创业板/300747-锐科激光.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7471,7 +7472,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7482,17 +7483,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -7502,14 +7523,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>17</v>
-      </c>
-      <c r="D2" t="n">
-        <v>13.43</v>
+          <t>001714</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信文体产业股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>103.17</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.62</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.4149</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -7518,14 +7561,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>33</v>
-      </c>
-      <c r="D3" t="n">
-        <v>22.87</v>
+          <t>009076</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银瑞信圆兴混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>62.28</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.3791</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -7534,14 +7599,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>34</v>
-      </c>
-      <c r="D4" t="n">
-        <v>31.62</v>
+          <t>010678</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>18.60</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7868</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -7550,14 +7637,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>40</v>
-      </c>
-      <c r="D5" t="n">
-        <v>29.8</v>
+          <t>010947</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧嘉选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>17.97</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.20</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7781</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -7566,14 +7675,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>23</v>
-      </c>
-      <c r="D6" t="n">
-        <v>8.77</v>
+          <t>011837</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏扬中国优质成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.43</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4781</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -7582,13 +7713,601 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>001907</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国投瑞银境煊灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.54</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3500</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001908</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国投瑞银境煊灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.54</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2253</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000535</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长盛航天海工装备灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>73.21</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1008</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010687</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>工银瑞信文体产业股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.62</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0874</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011838</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏扬中国优质成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0760</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>015309</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国投瑞银境煊灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.54</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0511</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010948</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中欧嘉选混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.20</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0420</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010679</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中欧均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0393</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>013575</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏扬品质精选混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005189</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>海富通量化前锋股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.36</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005188</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>海富通量化前锋股票C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.36</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>013576</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏扬品质精选混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>17</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.880000000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>17</v>
+      </c>
+      <c r="D3" t="n">
+        <v>13.43</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>33</v>
+      </c>
+      <c r="D4" t="n">
+        <v>22.87</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>34</v>
+      </c>
+      <c r="D5" t="n">
+        <v>31.62</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>40</v>
+      </c>
+      <c r="D6" t="n">
+        <v>29.8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>23</v>
+      </c>
+      <c r="D7" t="n">
+        <v>8.77</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>29</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>11.74</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300747-锐科激光.xlsx
+++ b/数据整理/stocks/A股/创业板/300747-锐科激光.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D2" t="n">
-        <v>8.880000000000001</v>
+        <v>7.22</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>17</v>
       </c>
       <c r="D3" t="n">
-        <v>13.43</v>
+        <v>8.880000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="D4" t="n">
-        <v>22.87</v>
+        <v>13.43</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D5" t="n">
-        <v>31.62</v>
+        <v>22.87</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D6" t="n">
-        <v>29.8</v>
+        <v>31.62</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="D7" t="n">
-        <v>8.77</v>
+        <v>29.8</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>23</v>
+      </c>
+      <c r="D8" t="n">
+        <v>8.77</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>29</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>11.74</v>
       </c>
     </row>
@@ -605,7 +622,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -661,27 +678,27 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>工银瑞信文体产业股票A</t>
+          <t>工银文体产业股票A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>103.17</t>
+          <t>82.50</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>86.62</t>
+          <t>87.70</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.31</t>
+          <t>2.68</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.4149</t>
+          <t>2.2110</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -694,36 +711,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009076</t>
+          <t>010723</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>工银瑞信圆兴混合</t>
+          <t>中欧价值成长混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>62.28</t>
+          <t>22.79</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.76</t>
+          <t>86.71</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.82</t>
+          <t>3.38</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.3791</t>
+          <t>0.7703</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -742,26 +759,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>18.60</t>
+          <t>14.02</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>90.05</t>
+          <t>87.25</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.23</t>
+          <t>3.98</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.7868</t>
+          <t>0.5580</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -780,26 +797,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>17.97</t>
+          <t>13.56</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>87.20</t>
+          <t>85.30</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.33</t>
+          <t>4.05</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.7781</t>
+          <t>0.5492</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -808,36 +825,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>011837</t>
+          <t>166009</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>鹏扬中国优质成长混合型证券投资基金A</t>
+          <t>中欧新动力混合（LOF）A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>9.43</t>
+          <t>16.12</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>92.57</t>
+          <t>84.76</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.07</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.4781</t>
+          <t>0.5239</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -846,36 +863,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>001907</t>
+          <t>009210</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>国投瑞银境煊灵活配置混合A</t>
+          <t>中欧嘉和三年持有期混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>4.66</t>
+          <t>14.42</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>86.54</t>
+          <t>92.18</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>7.51</t>
+          <t>3.35</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.3500</t>
+          <t>0.4831</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -894,26 +911,26 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>4.56</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>86.54</t>
+          <t>92.52</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>7.51</t>
+          <t>7.96</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.2253</t>
+          <t>0.3630</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -922,22 +939,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>000535</t>
+          <t>011837</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>长盛航天海工装备灵活配置混合</t>
+          <t>鹏扬中国优质成长混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2.24</t>
+          <t>7.87</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>73.21</t>
+          <t>88.18</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -947,11 +964,11 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.1008</t>
+          <t>0.3542</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -960,36 +977,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>010687</t>
+          <t>010425</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>工银瑞信文体产业股票C</t>
+          <t>国投瑞银开放视角精选混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2.64</t>
+          <t>4.27</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>86.62</t>
+          <t>91.65</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.31</t>
+          <t>7.34</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0874</t>
+          <t>0.3134</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -998,36 +1015,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>011838</t>
+          <t>001907</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>鹏扬中国优质成长混合型证券投资基金C</t>
+          <t>国投瑞银境煊灵活配置混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>3.76</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>92.57</t>
+          <t>92.52</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>5.07</t>
+          <t>7.96</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0760</t>
+          <t>0.2993</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -1046,26 +1063,26 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>2.68</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>86.54</t>
+          <t>92.52</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>7.51</t>
+          <t>7.96</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0511</t>
+          <t>0.2133</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -1074,36 +1091,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>010948</t>
+          <t>004236</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>中欧嘉选混合C</t>
+          <t>中欧新动力混合（LOF）C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>4.31</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>87.20</t>
+          <t>84.76</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>4.33</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0420</t>
+          <t>0.1401</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -1112,36 +1129,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>010679</t>
+          <t>009211</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>中欧均衡成长混合C</t>
+          <t>中欧嘉和三年持有期混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>90.05</t>
+          <t>92.18</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>4.23</t>
+          <t>3.35</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0393</t>
+          <t>0.0734</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -1150,36 +1167,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>013575</t>
+          <t>010687</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>鹏扬品质精选混合A</t>
+          <t>工银文体产业股票C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>2.21</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>94.17</t>
+          <t>87.70</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>4.77</t>
+          <t>2.68</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0358</t>
+          <t>0.0592</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -1188,36 +1205,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>005189</t>
+          <t>011838</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>海富通量化前锋股票A</t>
+          <t>鹏扬中国优质成长混合C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>1.29</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>91.36</t>
+          <t>88.18</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>1.43</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0230</t>
+          <t>0.0580</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1226,36 +1243,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>005188</t>
+          <t>010724</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>海富通量化前锋股票C</t>
+          <t>中欧价值成长混合C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>91.36</t>
+          <t>86.71</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1.43</t>
+          <t>3.38</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0090</t>
+          <t>0.0531</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18">
@@ -1264,36 +1281,340 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>010426</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国投瑞银开放视角精选混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0433</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>013575</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏扬品质精选混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>64.06</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0361</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010948</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中欧嘉选混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>85.30</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010679</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中欧均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>87.25</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>970043</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>东吴裕盈一年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>52.43</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001883</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中欧新动力混合（LOF）E</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>84.76</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>970045</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>东吴裕盈一年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>52.43</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>970044</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>东吴裕盈一年持有期灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>52.43</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
           <t>013576</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>鹏扬品质精选混合C</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>94.17</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>4.77</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0052</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>5</v>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>64.06</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1368,26 +1689,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>95.78</t>
+          <t>103.17</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>88.85</t>
+          <t>86.62</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.67</t>
+          <t>3.31</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.5151</t>
+          <t>3.4149</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1406,26 +1727,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>59.11</t>
+          <t>62.28</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.87</t>
+          <t>91.76</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.16</t>
+          <t>3.82</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.4590</t>
+          <t>2.3791</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1434,36 +1755,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>011006</t>
+          <t>010678</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>工银瑞信圆丰三年持有期混合</t>
+          <t>中欧均衡成长混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>74.61</t>
+          <t>18.60</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>90.12</t>
+          <t>90.05</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.88</t>
+          <t>4.23</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2.1488</t>
+          <t>0.7868</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -1472,36 +1793,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010723</t>
+          <t>010947</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中欧价值成长混合A</t>
+          <t>中欧嘉选混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>28.80</t>
+          <t>17.97</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>91.96</t>
+          <t>87.20</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.36</t>
+          <t>4.33</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.9677</t>
+          <t>0.7781</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -1510,36 +1831,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>166027</t>
+          <t>011837</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中欧创业板两年定期开放混合A</t>
+          <t>鹏扬中国优质成长混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>21.11</t>
+          <t>9.43</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>99.64</t>
+          <t>92.57</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.34</t>
+          <t>5.07</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.9162</t>
+          <t>0.4781</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -1548,36 +1869,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>010947</t>
+          <t>001907</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中欧嘉选混合A</t>
+          <t>国投瑞银境煊灵活配置混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>17.36</t>
+          <t>4.66</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>87.64</t>
+          <t>86.54</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.07</t>
+          <t>7.51</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.7066</t>
+          <t>0.3500</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -1586,36 +1907,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>010678</t>
+          <t>001908</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中欧均衡成长混合A</t>
+          <t>国投瑞银境煊灵活配置混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>18.02</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>90.22</t>
+          <t>86.54</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.86</t>
+          <t>7.51</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.6956</t>
+          <t>0.2253</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -1624,36 +1945,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>009210</t>
+          <t>000535</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>中欧嘉和三年持有期混合A</t>
+          <t>长盛航天海工装备灵活配置混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>18.38</t>
+          <t>2.24</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>85.26</t>
+          <t>73.21</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.51</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.6451</t>
+          <t>0.1008</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -1662,36 +1983,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>003396</t>
+          <t>010687</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>东方红优享红利沪港深灵活配置混合</t>
+          <t>工银瑞信文体产业股票C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>15.87</t>
+          <t>2.64</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>89.27</t>
+          <t>86.62</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.11</t>
+          <t>3.31</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.4936</t>
+          <t>0.0874</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -1700,36 +2021,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>000594</t>
+          <t>011838</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>大摩进取优选股票</t>
+          <t>鹏扬中国优质成长混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>6.04</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>90.72</t>
+          <t>92.57</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>4.28</t>
+          <t>5.07</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.2585</t>
+          <t>0.0760</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -1738,36 +2059,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>009791</t>
+          <t>015309</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>中欧创业板两年定期开放混合C</t>
+          <t>国投瑞银境煊灵活配置混合E</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>5.21</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>99.64</t>
+          <t>86.54</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>4.34</t>
+          <t>7.51</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.2261</t>
+          <t>0.0511</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -1776,36 +2097,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>010687</t>
+          <t>010948</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>工银瑞信文体产业股票C</t>
+          <t>中欧嘉选混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2.71</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>88.85</t>
+          <t>87.20</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>3.67</t>
+          <t>4.33</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0995</t>
+          <t>0.0420</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14">
@@ -1814,36 +2135,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>009211</t>
+          <t>010679</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>中欧嘉和三年持有期混合C</t>
+          <t>中欧均衡成长混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2.42</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>85.26</t>
+          <t>90.05</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>3.51</t>
+          <t>4.23</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0849</t>
+          <t>0.0393</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
@@ -1852,36 +2173,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>233011</t>
+          <t>013575</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>大摩主题优选混合</t>
+          <t>鹏扬品质精选混合A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>90.75</t>
+          <t>94.17</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>4.27</t>
+          <t>4.77</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0726</t>
+          <t>0.0358</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16">
@@ -1890,36 +2211,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>010724</t>
+          <t>005189</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>中欧价值成长混合C</t>
+          <t>海富通量化前锋股票A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>91.96</t>
+          <t>91.36</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>3.36</t>
+          <t>1.43</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0632</t>
+          <t>0.0230</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17">
@@ -1928,36 +2249,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>010948</t>
+          <t>005188</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>中欧嘉选混合C</t>
+          <t>海富通量化前锋股票C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>87.64</t>
+          <t>91.36</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>4.07</t>
+          <t>1.43</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0383</t>
+          <t>0.0090</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -1966,36 +2287,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>010679</t>
+          <t>013576</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>中欧均衡成长混合C</t>
+          <t>鹏扬品质精选混合C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>90.22</t>
+          <t>94.17</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>3.86</t>
+          <t>4.77</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0347</t>
+          <t>0.0052</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -2004,6 +2325,708 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001714</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信文体产业股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>95.78</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.85</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.5151</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009076</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银瑞信圆兴混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>59.11</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.4590</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011006</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银瑞信圆丰三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>74.61</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.1488</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010723</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>28.80</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9677</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>166027</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧创业板两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>21.11</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.64</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9162</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010947</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧嘉选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>17.36</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.64</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7066</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010678</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>18.02</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6956</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009210</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧嘉和三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>18.38</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.26</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6451</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003396</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>东方红优享红利沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>15.87</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.27</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4936</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000594</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>大摩进取优选股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2585</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009791</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中欧创业板两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>99.64</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2261</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010687</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>工银瑞信文体产业股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.85</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0995</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009211</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中欧嘉和三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>85.26</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0849</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>233011</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>大摩主题优选混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.75</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0726</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010724</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中欧价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0632</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010948</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中欧嘉选混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>87.64</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0383</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010679</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中欧均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0347</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3313,7 +4336,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4661,7 +5684,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6228,7 +7251,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7158,7 +8181,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300747-锐科激光.xlsx
+++ b/数据整理/stocks/A股/创业板/300747-锐科激光.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D2" t="n">
-        <v>7.22</v>
+        <v>5.68</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D3" t="n">
-        <v>8.880000000000001</v>
+        <v>7.22</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>17</v>
       </c>
       <c r="D4" t="n">
-        <v>13.43</v>
+        <v>8.880000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="D5" t="n">
-        <v>22.87</v>
+        <v>13.43</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D6" t="n">
-        <v>31.62</v>
+        <v>22.87</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D7" t="n">
-        <v>29.8</v>
+        <v>31.62</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="D8" t="n">
-        <v>8.77</v>
+        <v>29.8</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,1188 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>23</v>
+      </c>
+      <c r="D9" t="n">
+        <v>8.77</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>29</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>11.74</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>590001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中邮核心优选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>26.92</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.3340</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>590008</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中邮战略新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.94</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.88</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5931</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>169104</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方红睿满沪港深灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>41.88</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1726</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002620</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中邮未来新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>14.38</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1677</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>166027</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧创业板两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>24.06</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.78</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0899</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>163804</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中银收益混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>17.97</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5966</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>960012</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中银收益混合H</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>17.97</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5966</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007777</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中邮研究精选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.48</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>79.65</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5821</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002474</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中邮睿信增强债券</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>27.39</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>20.06</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5752</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>590006</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中邮中小盘灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>80.25</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4336</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000586</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>景顺长城中小板创业板精选股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.58</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3904</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009791</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中欧创业板两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.78</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2759</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>210009</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>金鹰核心资源混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2719</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>163822</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中银主题策略混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1595</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001704</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国投瑞银进宝灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1509</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>003842</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中邮景泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>29.97</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1033</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006736</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国投瑞银先进制造混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0826</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>210002</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>金鹰红利价值混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>74.22</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0431</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009128</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>明亚价值长青混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>60.48</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>003843</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中邮景泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>29.97</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002210</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>创金合信量化多因子股票A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>003659</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>山西证券策略精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009129</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>明亚价值长青混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>60.48</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>008890</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中邮价值优选一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>169201</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>浙商汇金鼎盈事件驱动灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>88.95</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>003646</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>创金合信中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>003647</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>创金合信中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>000706</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中邮多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>003865</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>创金合信量化多因子股票C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +1792,1162 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010723</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.90</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.01</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8234</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010678</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.63</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.93</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5956</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>166009</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧新动力混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15.62</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.77</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5779</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009210</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧嘉和三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>14.41</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5159</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010947</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧嘉选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.93</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.49</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3763</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001907</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国投瑞银境煊灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.03</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3718</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001908</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国投瑞银境煊灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.03</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3665</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011837</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏扬中国优质成长混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.59</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3438</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010425</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国投瑞银开放视角精选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3376</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>015309</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国投瑞银境煊灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.03</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2543</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011708</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中欧嘉益一年混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1464</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010114</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华宝新兴成长混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.74</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1326</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004236</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中欧新动力混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>86.77</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1295</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>240017</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华宝新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>86.64</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1173</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001088</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华宝国策导向混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>85.09</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0947</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009211</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中欧嘉和三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0788</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011709</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中欧嘉益一年混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0610</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010724</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中欧价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>83.01</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0572</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011838</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鹏扬中国优质成长混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0571</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009189</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华宝成长策略混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>88.29</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0522</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010426</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国投瑞银开放视角精选混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0453</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>013575</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>鹏扬品质精选混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.80</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0380</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010679</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中欧均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>83.93</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001266</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>国投瑞银招财灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>86.51</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010948</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中欧嘉选混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>83.49</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>530016</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>建信恒稳价值混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>52.32</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001883</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中欧新动力混合（LOF）E</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>86.77</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>013576</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>鹏扬品质精选混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.80</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>017197</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华宝新兴成长混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>89.74</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1615,708 +3946,6 @@
       </c>
       <c r="H26" t="n">
         <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>001714</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>工银瑞信文体产业股票A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>103.17</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>86.62</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.31</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>3.4149</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>009076</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>工银瑞信圆兴混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>62.28</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91.76</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.82</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2.3791</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>010678</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中欧均衡成长混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>18.60</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>90.05</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.23</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.7868</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>010947</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>中欧嘉选混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>17.97</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>87.20</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.33</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.7781</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>011837</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>鹏扬中国优质成长混合型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>9.43</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>92.57</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5.07</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.4781</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>001907</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>国投瑞银境煊灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>4.66</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>86.54</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>7.51</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.3500</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>001908</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>国投瑞银境煊灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>86.54</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>7.51</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.2253</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>000535</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>长盛航天海工装备灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2.24</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>73.21</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.50</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.1008</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>010687</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>工银瑞信文体产业股票C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>2.64</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>86.62</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.31</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0874</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>011838</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>鹏扬中国优质成长混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1.50</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>92.57</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>5.07</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0760</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>015309</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>国投瑞银境煊灵活配置混合E</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.68</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>86.54</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>7.51</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0511</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>010948</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>中欧嘉选混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.97</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>87.20</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>4.33</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0420</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>010679</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>中欧均衡成长混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>90.05</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>4.23</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0393</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>013575</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>鹏扬品质精选混合A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.75</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>94.17</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>4.77</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0358</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>005189</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>海富通量化前锋股票A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>1.61</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>91.36</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>1.43</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0230</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>005188</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>海富通量化前锋股票C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.63</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>91.36</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>1.43</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0090</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>013576</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>鹏扬品质精选混合C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>94.17</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>4.77</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0052</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -2391,26 +4020,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>95.78</t>
+          <t>103.17</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>88.85</t>
+          <t>86.62</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.67</t>
+          <t>3.31</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.5151</t>
+          <t>3.4149</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -2429,26 +4058,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>59.11</t>
+          <t>62.28</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.87</t>
+          <t>91.76</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.16</t>
+          <t>3.82</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.4590</t>
+          <t>2.3791</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -2457,36 +4086,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>011006</t>
+          <t>010678</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>工银瑞信圆丰三年持有期混合</t>
+          <t>中欧均衡成长混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>74.61</t>
+          <t>18.60</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>90.12</t>
+          <t>90.05</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.88</t>
+          <t>4.23</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2.1488</t>
+          <t>0.7868</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -2495,36 +4124,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010723</t>
+          <t>010947</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中欧价值成长混合A</t>
+          <t>中欧嘉选混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>28.80</t>
+          <t>17.97</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>91.96</t>
+          <t>87.20</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.36</t>
+          <t>4.33</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.9677</t>
+          <t>0.7781</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -2533,36 +4162,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>166027</t>
+          <t>011837</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中欧创业板两年定期开放混合A</t>
+          <t>鹏扬中国优质成长混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>21.11</t>
+          <t>9.43</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>99.64</t>
+          <t>92.57</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.34</t>
+          <t>5.07</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.9162</t>
+          <t>0.4781</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -2571,36 +4200,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>010947</t>
+          <t>001907</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中欧嘉选混合A</t>
+          <t>国投瑞银境煊灵活配置混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>17.36</t>
+          <t>4.66</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>87.64</t>
+          <t>86.54</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.07</t>
+          <t>7.51</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.7066</t>
+          <t>0.3500</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -2609,36 +4238,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>010678</t>
+          <t>001908</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中欧均衡成长混合A</t>
+          <t>国投瑞银境煊灵活配置混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>18.02</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>90.22</t>
+          <t>86.54</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.86</t>
+          <t>7.51</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.6956</t>
+          <t>0.2253</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -2647,36 +4276,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>009210</t>
+          <t>000535</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>中欧嘉和三年持有期混合A</t>
+          <t>长盛航天海工装备灵活配置混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>18.38</t>
+          <t>2.24</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>85.26</t>
+          <t>73.21</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.51</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.6451</t>
+          <t>0.1008</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -2685,36 +4314,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>003396</t>
+          <t>010687</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>东方红优享红利沪港深灵活配置混合</t>
+          <t>工银瑞信文体产业股票C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>15.87</t>
+          <t>2.64</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>89.27</t>
+          <t>86.62</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.11</t>
+          <t>3.31</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.4936</t>
+          <t>0.0874</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -2723,36 +4352,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>000594</t>
+          <t>011838</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>大摩进取优选股票</t>
+          <t>鹏扬中国优质成长混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>6.04</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>90.72</t>
+          <t>92.57</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>4.28</t>
+          <t>5.07</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.2585</t>
+          <t>0.0760</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -2761,36 +4390,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>009791</t>
+          <t>015309</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>中欧创业板两年定期开放混合C</t>
+          <t>国投瑞银境煊灵活配置混合E</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>5.21</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>99.64</t>
+          <t>86.54</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>4.34</t>
+          <t>7.51</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.2261</t>
+          <t>0.0511</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -2799,36 +4428,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>010687</t>
+          <t>010948</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>工银瑞信文体产业股票C</t>
+          <t>中欧嘉选混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2.71</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>88.85</t>
+          <t>87.20</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>3.67</t>
+          <t>4.33</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0995</t>
+          <t>0.0420</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14">
@@ -2837,36 +4466,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>009211</t>
+          <t>010679</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>中欧嘉和三年持有期混合C</t>
+          <t>中欧均衡成长混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2.42</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>85.26</t>
+          <t>90.05</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>3.51</t>
+          <t>4.23</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0849</t>
+          <t>0.0393</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
@@ -2875,36 +4504,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>233011</t>
+          <t>013575</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>大摩主题优选混合</t>
+          <t>鹏扬品质精选混合A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>90.75</t>
+          <t>94.17</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>4.27</t>
+          <t>4.77</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0726</t>
+          <t>0.0358</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16">
@@ -2913,36 +4542,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>010724</t>
+          <t>005189</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>中欧价值成长混合C</t>
+          <t>海富通量化前锋股票A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>91.96</t>
+          <t>91.36</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>3.36</t>
+          <t>1.43</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0632</t>
+          <t>0.0230</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17">
@@ -2951,36 +4580,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>010948</t>
+          <t>005188</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>中欧嘉选混合C</t>
+          <t>海富通量化前锋股票C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>87.64</t>
+          <t>91.36</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>4.07</t>
+          <t>1.43</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0383</t>
+          <t>0.0090</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -2989,36 +4618,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>010679</t>
+          <t>013576</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>中欧均衡成长混合C</t>
+          <t>鹏扬品质精选混合C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>90.22</t>
+          <t>94.17</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>3.86</t>
+          <t>4.77</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0347</t>
+          <t>0.0052</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -3027,6 +4656,708 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001714</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信文体产业股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>95.78</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.85</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.5151</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009076</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银瑞信圆兴混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>59.11</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.4590</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011006</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银瑞信圆丰三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>74.61</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.1488</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010723</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>28.80</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9677</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>166027</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧创业板两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>21.11</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.64</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9162</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010947</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧嘉选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>17.36</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.64</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7066</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010678</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>18.02</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6956</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009210</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧嘉和三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>18.38</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.26</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6451</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003396</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>东方红优享红利沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>15.87</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.27</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4936</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000594</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>大摩进取优选股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2585</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009791</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中欧创业板两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>99.64</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2261</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010687</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>工银瑞信文体产业股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.85</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0995</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009211</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中欧嘉和三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>85.26</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0849</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>233011</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>大摩主题优选混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.75</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0726</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010724</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中欧价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0632</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010948</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中欧嘉选混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>87.64</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0383</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010679</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中欧均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0347</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4336,7 +6667,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5684,7 +8015,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7251,7 +9582,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8179,1162 +10510,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>590001</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>中邮核心优选混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>26.92</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.48</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>8.67</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.3340</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>590008</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>中邮战略新兴产业混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>17.94</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.89</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>8.88</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.5931</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>169104</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>东方红睿满沪港深灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>41.88</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>91.38</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.80</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.1726</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>002620</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>中邮未来新蓝筹灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>14.38</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>92.13</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>8.12</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1.1677</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>166027</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>中欧创业板两年定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>24.06</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>87.78</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.53</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>1.0899</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>163804</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>中银收益混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>17.97</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>89.13</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.32</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.5966</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>960012</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>中银收益混合H</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>17.97</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>89.13</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.32</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.5966</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>007777</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>中邮研究精选混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>9.48</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>79.65</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>6.14</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.5821</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>002474</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>中邮睿信增强债券</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>27.39</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>20.06</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.10</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.5752</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>590006</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>中邮中小盘灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>5.23</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>80.25</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>8.29</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.4336</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>000586</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>景顺长城中小板创业板精选股票</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>4.55</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>92.84</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>8.58</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.3904</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>009791</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>中欧创业板两年定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>6.09</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>87.78</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>4.53</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.2759</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>210009</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>金鹰核心资源混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>4.12</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>90.93</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>6.60</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.2719</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>163822</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>中银主题策略混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>3.78</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>90.98</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>4.22</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.1595</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>001704</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>国投瑞银进宝灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>3.97</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>93.85</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>3.80</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.1509</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>003842</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>中邮景泰灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>5.38</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>29.97</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>1.92</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.1033</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>006736</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>国投瑞银先进制造混合</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>2.59</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>94.39</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>3.19</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0826</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>210002</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>金鹰红利价值混合</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.63</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>74.22</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>6.84</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0431</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>009128</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>明亚价值长青混合A</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.55</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>60.48</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>4.78</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0263</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>003843</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>中邮景泰灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>1.29</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>29.97</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>1.92</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0248</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>002210</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>创金合信量化多因子股票A</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>2.46</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>89.50</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>0.92</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0226</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>003659</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>山西证券策略精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.51</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>91.74</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>2.93</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0149</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>009129</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>明亚价值长青混合C</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>60.48</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>4.78</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0120</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>008890</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>中邮价值优选一年定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>89.45</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>5.62</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0084</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>169201</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>浙商汇金鼎盈事件驱动灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>88.95</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>4.76</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0067</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>003646</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>创金合信中证1000指数增强A</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0.66</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>91.29</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0066</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>003647</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>创金合信中证1000指数增强C</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>91.29</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0014</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>000706</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>中邮多策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>93.77</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>6.69</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0007</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>003865</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>创金合信量化多因子股票C</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>89.50</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>0.92</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0004</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>